--- a/demo/Assets/ConfigSheets~/demo.xlsx
+++ b/demo/Assets/ConfigSheets~/demo.xlsx
@@ -11,7 +11,7 @@
     <sheet name="NPCSetting" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="NPCTemplate" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="NPCCityRelation" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CityTemplate" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CityTemplate~" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
